--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3377,28 +3377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4111.437187186926</v>
+        <v>4277.898342259627</v>
       </c>
       <c r="AB2" t="n">
-        <v>5625.449743316746</v>
+        <v>5853.209239435097</v>
       </c>
       <c r="AC2" t="n">
-        <v>5088.564715182687</v>
+        <v>5294.587164653953</v>
       </c>
       <c r="AD2" t="n">
-        <v>4111437.187186927</v>
+        <v>4277898.342259628</v>
       </c>
       <c r="AE2" t="n">
-        <v>5625449.743316746</v>
+        <v>5853209.239435096</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.453460242670602e-07</v>
+        <v>1.090989473641573e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.39539930555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>5088564.715182687</v>
+        <v>5294587.164653952</v>
       </c>
     </row>
     <row r="3">
@@ -3483,28 +3483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1926.19790106114</v>
+        <v>2040.586545602386</v>
       </c>
       <c r="AB3" t="n">
-        <v>2635.50894608581</v>
+        <v>2792.020536017978</v>
       </c>
       <c r="AC3" t="n">
-        <v>2383.979671231417</v>
+        <v>2525.554014685854</v>
       </c>
       <c r="AD3" t="n">
-        <v>1926197.90106114</v>
+        <v>2040586.545602385</v>
       </c>
       <c r="AE3" t="n">
-        <v>2635508.94608581</v>
+        <v>2792020.536017978</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.020864211420144e-06</v>
+        <v>1.725821600809746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.84809027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2383979.671231417</v>
+        <v>2525554.014685854</v>
       </c>
     </row>
     <row r="4">
@@ -3589,28 +3589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1553.318016365241</v>
+        <v>1646.877782005876</v>
       </c>
       <c r="AB4" t="n">
-        <v>2125.318237545372</v>
+        <v>2253.33083646044</v>
       </c>
       <c r="AC4" t="n">
-        <v>1922.480847856922</v>
+        <v>2038.276103998347</v>
       </c>
       <c r="AD4" t="n">
-        <v>1553318.016365241</v>
+        <v>1646877.782005876</v>
       </c>
       <c r="AE4" t="n">
-        <v>2125318.237545372</v>
+        <v>2253330.83646044</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.165208099371081e-06</v>
+        <v>1.969842105186174e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.38715277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1922480.847856922</v>
+        <v>2038276.103998347</v>
       </c>
     </row>
     <row r="5">
@@ -3695,28 +3695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1390.061594374009</v>
+        <v>1473.292216664635</v>
       </c>
       <c r="AB5" t="n">
-        <v>1901.943598611949</v>
+        <v>2015.823407905891</v>
       </c>
       <c r="AC5" t="n">
-        <v>1720.42477095503</v>
+        <v>1823.436051081274</v>
       </c>
       <c r="AD5" t="n">
-        <v>1390061.594374009</v>
+        <v>1473292.216664635</v>
       </c>
       <c r="AE5" t="n">
-        <v>1901943.598611949</v>
+        <v>2015823.407905891</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.241488148825101e-06</v>
+        <v>2.098797313514468e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.31944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1720424.77095503</v>
+        <v>1823436.051081274</v>
       </c>
     </row>
     <row r="6">
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1284.607856858799</v>
+        <v>1367.923730495445</v>
       </c>
       <c r="AB6" t="n">
-        <v>1757.65714265308</v>
+        <v>1871.653596599672</v>
       </c>
       <c r="AC6" t="n">
-        <v>1589.908811845563</v>
+        <v>1693.02560422252</v>
       </c>
       <c r="AD6" t="n">
-        <v>1284607.856858799</v>
+        <v>1367923.730495445</v>
       </c>
       <c r="AE6" t="n">
-        <v>1757657.14265308</v>
+        <v>1871653.596599672</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.290505316466914e-06</v>
+        <v>2.181663267458598e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.70095486111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1589908.811845563</v>
+        <v>1693025.60422252</v>
       </c>
     </row>
     <row r="7">
@@ -3907,28 +3907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1216.522599895221</v>
+        <v>1299.667881331276</v>
       </c>
       <c r="AB7" t="n">
-        <v>1664.499890365968</v>
+        <v>1778.262932537713</v>
       </c>
       <c r="AC7" t="n">
-        <v>1505.642356969708</v>
+        <v>1608.548014064014</v>
       </c>
       <c r="AD7" t="n">
-        <v>1216522.599895221</v>
+        <v>1299667.881331276</v>
       </c>
       <c r="AE7" t="n">
-        <v>1664499.890365968</v>
+        <v>1778262.932537713</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.324117088564156e-06</v>
+        <v>2.238485635877429e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.30164930555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1505642.356969708</v>
+        <v>1608548.014064014</v>
       </c>
     </row>
     <row r="8">
@@ -4013,28 +4013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1157.97530931456</v>
+        <v>1230.876788255176</v>
       </c>
       <c r="AB8" t="n">
-        <v>1584.39290446934</v>
+        <v>1684.139924142156</v>
       </c>
       <c r="AC8" t="n">
-        <v>1433.180669376193</v>
+        <v>1523.407973487257</v>
       </c>
       <c r="AD8" t="n">
-        <v>1157975.30931456</v>
+        <v>1230876.788255176</v>
       </c>
       <c r="AE8" t="n">
-        <v>1584392.90446934</v>
+        <v>1684139.924142156</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.350259577973123e-06</v>
+        <v>2.282680811314298e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.00651041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1433180.669376193</v>
+        <v>1523407.973487257</v>
       </c>
     </row>
     <row r="9">
@@ -4119,28 +4119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1104.862941066167</v>
+        <v>1188.093473848242</v>
       </c>
       <c r="AB9" t="n">
-        <v>1511.722219079574</v>
+        <v>1625.601905903967</v>
       </c>
       <c r="AC9" t="n">
-        <v>1367.445572206079</v>
+        <v>1470.456741551097</v>
       </c>
       <c r="AD9" t="n">
-        <v>1104862.941066167</v>
+        <v>1188093.473848242</v>
       </c>
       <c r="AE9" t="n">
-        <v>1511722.219079574</v>
+        <v>1625601.905903968</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.366225169719313e-06</v>
+        <v>2.309671436313244e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.83072916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1367445.572206079</v>
+        <v>1470456.741551097</v>
       </c>
     </row>
     <row r="10">
@@ -4225,28 +4225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1062.496352152476</v>
+        <v>1145.726884934551</v>
       </c>
       <c r="AB10" t="n">
-        <v>1453.754383045872</v>
+        <v>1567.634069870266</v>
       </c>
       <c r="AC10" t="n">
-        <v>1315.010105085065</v>
+        <v>1418.021274430083</v>
       </c>
       <c r="AD10" t="n">
-        <v>1062496.352152476</v>
+        <v>1145726.884934551</v>
       </c>
       <c r="AE10" t="n">
-        <v>1453754.383045872</v>
+        <v>1567634.069870266</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.379763244591814e-06</v>
+        <v>2.332558223593051e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.68532986111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1315010.105085065</v>
+        <v>1418021.274430083</v>
       </c>
     </row>
     <row r="11">
@@ -4331,28 +4331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1058.393605740721</v>
+        <v>1141.624138522796</v>
       </c>
       <c r="AB11" t="n">
-        <v>1448.140824404911</v>
+        <v>1562.020511229305</v>
       </c>
       <c r="AC11" t="n">
-        <v>1309.932296602118</v>
+        <v>1412.943465947136</v>
       </c>
       <c r="AD11" t="n">
-        <v>1058393.605740721</v>
+        <v>1141624.138522796</v>
       </c>
       <c r="AE11" t="n">
-        <v>1448140.824404911</v>
+        <v>1562020.511229305</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.382004029398296e-06</v>
+        <v>2.33634638148764e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1309932.296602118</v>
+        <v>1412943.465947136</v>
       </c>
     </row>
     <row r="12">
@@ -4437,28 +4437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1062.768643367177</v>
+        <v>1145.999176149252</v>
       </c>
       <c r="AB12" t="n">
-        <v>1454.126943898467</v>
+        <v>1568.00663072286</v>
       </c>
       <c r="AC12" t="n">
-        <v>1315.34710925278</v>
+        <v>1418.358278597798</v>
       </c>
       <c r="AD12" t="n">
-        <v>1062768.643367177</v>
+        <v>1145999.176149252</v>
       </c>
       <c r="AE12" t="n">
-        <v>1454126.943898467</v>
+        <v>1568006.63072286</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.382004029398296e-06</v>
+        <v>2.33634638148764e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.66145833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1315347.10925278</v>
+        <v>1418358.278597798</v>
       </c>
     </row>
   </sheetData>
@@ -4734,28 +4734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2830.484888858476</v>
+        <v>2971.496905617354</v>
       </c>
       <c r="AB2" t="n">
-        <v>3872.794297116648</v>
+        <v>4065.733159457279</v>
       </c>
       <c r="AC2" t="n">
-        <v>3503.180244900623</v>
+        <v>3677.705293010851</v>
       </c>
       <c r="AD2" t="n">
-        <v>2830484.888858476</v>
+        <v>2971496.905617354</v>
       </c>
       <c r="AE2" t="n">
-        <v>3872794.297116647</v>
+        <v>4065733.159457279</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.938391463126135e-07</v>
+        <v>1.374763494972241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.40190972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>3503180.244900623</v>
+        <v>3677705.293010851</v>
       </c>
     </row>
     <row r="3">
@@ -4840,28 +4840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1542.436225344852</v>
+        <v>1633.166084593572</v>
       </c>
       <c r="AB3" t="n">
-        <v>2110.429291000537</v>
+        <v>2234.56988714353</v>
       </c>
       <c r="AC3" t="n">
-        <v>1909.012881473559</v>
+        <v>2021.305673353085</v>
       </c>
       <c r="AD3" t="n">
-        <v>1542436.225344852</v>
+        <v>1633166.084593572</v>
       </c>
       <c r="AE3" t="n">
-        <v>2110429.291000538</v>
+        <v>2234569.88714353</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.141548226094267e-06</v>
+        <v>1.97692295255833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.36154513888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1909012.881473559</v>
+        <v>2021305.673353085</v>
       </c>
     </row>
     <row r="4">
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1273.884596716392</v>
+        <v>1354.523888121252</v>
       </c>
       <c r="AB4" t="n">
-        <v>1742.98510504939</v>
+        <v>1853.319341103977</v>
       </c>
       <c r="AC4" t="n">
-        <v>1576.637052918435</v>
+        <v>1676.441144339045</v>
       </c>
       <c r="AD4" t="n">
-        <v>1273884.596716392</v>
+        <v>1354523.888121252</v>
       </c>
       <c r="AE4" t="n">
-        <v>1742985.10504939</v>
+        <v>1853319.341103978</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.271649373445902e-06</v>
+        <v>2.202230949605125e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1576637.052918435</v>
+        <v>1676441.144339046</v>
       </c>
     </row>
     <row r="5">
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1143.509563568193</v>
+        <v>1224.234106319074</v>
       </c>
       <c r="AB5" t="n">
-        <v>1564.6002329555</v>
+        <v>1675.051113662736</v>
       </c>
       <c r="AC5" t="n">
-        <v>1415.276982652445</v>
+        <v>1515.186586323768</v>
       </c>
       <c r="AD5" t="n">
-        <v>1143509.563568193</v>
+        <v>1224234.106319075</v>
       </c>
       <c r="AE5" t="n">
-        <v>1564600.2329555</v>
+        <v>1675051.113662736</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.339838987425304e-06</v>
+        <v>2.320321109898396e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.64453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1415276.982652445</v>
+        <v>1515186.586323768</v>
       </c>
     </row>
     <row r="6">
@@ -5158,28 +5158,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1062.854350060355</v>
+        <v>1133.488414475927</v>
       </c>
       <c r="AB6" t="n">
-        <v>1454.244211577186</v>
+        <v>1550.888854665566</v>
       </c>
       <c r="AC6" t="n">
-        <v>1315.453185068828</v>
+        <v>1402.874199062462</v>
       </c>
       <c r="AD6" t="n">
-        <v>1062854.350060355</v>
+        <v>1133488.414475927</v>
       </c>
       <c r="AE6" t="n">
-        <v>1454244.211577185</v>
+        <v>1550888.854665566</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.383109450687021e-06</v>
+        <v>2.395256509064665e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.15407986111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1315453.185068828</v>
+        <v>1402874.199062462</v>
       </c>
     </row>
     <row r="7">
@@ -5264,28 +5264,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>981.5582092192751</v>
+        <v>1062.197411115585</v>
       </c>
       <c r="AB7" t="n">
-        <v>1343.011245145811</v>
+        <v>1453.34535873085</v>
       </c>
       <c r="AC7" t="n">
-        <v>1214.836136837215</v>
+        <v>1314.640117476599</v>
       </c>
       <c r="AD7" t="n">
-        <v>981558.2092192752</v>
+        <v>1062197.411115585</v>
       </c>
       <c r="AE7" t="n">
-        <v>1343011.245145811</v>
+        <v>1453345.35873085</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.416817914254743e-06</v>
+        <v>2.453632523147317e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.79383680555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1214836.136837215</v>
+        <v>1314640.117476599</v>
       </c>
     </row>
     <row r="8">
@@ -5370,28 +5370,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>961.6840857433617</v>
+        <v>1042.323287639671</v>
       </c>
       <c r="AB8" t="n">
-        <v>1315.818592621618</v>
+        <v>1426.152706206657</v>
       </c>
       <c r="AC8" t="n">
-        <v>1190.238712904804</v>
+        <v>1290.042693544188</v>
       </c>
       <c r="AD8" t="n">
-        <v>961684.0857433617</v>
+        <v>1042323.287639671</v>
       </c>
       <c r="AE8" t="n">
-        <v>1315818.592621618</v>
+        <v>1426152.706206657</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.422999409006416e-06</v>
+        <v>2.46433758017107e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.72873263888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1190238.712904804</v>
+        <v>1290042.693544188</v>
       </c>
     </row>
     <row r="9">
@@ -5476,28 +5476,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>966.2181915166341</v>
+        <v>1046.857393412944</v>
       </c>
       <c r="AB9" t="n">
-        <v>1322.022356171239</v>
+        <v>1432.356469756278</v>
       </c>
       <c r="AC9" t="n">
-        <v>1195.850397968286</v>
+        <v>1295.654378607669</v>
       </c>
       <c r="AD9" t="n">
-        <v>966218.1915166341</v>
+        <v>1046857.393412944</v>
       </c>
       <c r="AE9" t="n">
-        <v>1322022.356171239</v>
+        <v>1432356.469756278</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.422613065584437e-06</v>
+        <v>2.463668514107085e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.73307291666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1195850.397968285</v>
+        <v>1295654.378607669</v>
       </c>
     </row>
   </sheetData>
@@ -5773,28 +5773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1094.195664714986</v>
+        <v>1176.148703883404</v>
       </c>
       <c r="AB2" t="n">
-        <v>1497.12678096887</v>
+        <v>1609.258544672017</v>
       </c>
       <c r="AC2" t="n">
-        <v>1354.243102223834</v>
+        <v>1455.673167777072</v>
       </c>
       <c r="AD2" t="n">
-        <v>1094195.664714986</v>
+        <v>1176148.703883404</v>
       </c>
       <c r="AE2" t="n">
-        <v>1497126.78096887</v>
+        <v>1609258.544672017</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.27067602566795e-06</v>
+        <v>2.404392476981358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.40711805555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1354243.102223834</v>
+        <v>1455673.167777071</v>
       </c>
     </row>
     <row r="3">
@@ -5879,28 +5879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>759.085990105781</v>
+        <v>831.8383228069117</v>
       </c>
       <c r="AB3" t="n">
-        <v>1038.614940173113</v>
+        <v>1138.157891381196</v>
       </c>
       <c r="AC3" t="n">
-        <v>939.4909879882143</v>
+        <v>1029.533699642408</v>
       </c>
       <c r="AD3" t="n">
-        <v>759085.990105781</v>
+        <v>831838.3228069118</v>
       </c>
       <c r="AE3" t="n">
-        <v>1038614.940173113</v>
+        <v>1138157.891381196</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.511985917226096e-06</v>
+        <v>2.861002719217258e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.46875</v>
       </c>
       <c r="AH3" t="n">
-        <v>939490.9879882144</v>
+        <v>1029533.699642408</v>
       </c>
     </row>
     <row r="4">
@@ -5985,28 +5985,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>758.5271033315619</v>
+        <v>831.2794360326925</v>
       </c>
       <c r="AB4" t="n">
-        <v>1037.850246632282</v>
+        <v>1137.393197840365</v>
       </c>
       <c r="AC4" t="n">
-        <v>938.7992757256663</v>
+        <v>1028.84198737986</v>
       </c>
       <c r="AD4" t="n">
-        <v>758527.1033315619</v>
+        <v>831279.4360326926</v>
       </c>
       <c r="AE4" t="n">
-        <v>1037850.246632282</v>
+        <v>1137393.197840365</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.515542516789034e-06</v>
+        <v>2.867732570934e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.43185763888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>938799.2757256663</v>
+        <v>1028841.98737986</v>
       </c>
     </row>
   </sheetData>
@@ -6282,28 +6282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1565.033378611206</v>
+        <v>1669.410976325331</v>
       </c>
       <c r="AB2" t="n">
-        <v>2141.347713015607</v>
+        <v>2284.161747022693</v>
       </c>
       <c r="AC2" t="n">
-        <v>1936.980492685788</v>
+        <v>2066.164555727994</v>
       </c>
       <c r="AD2" t="n">
-        <v>1565033.378611206</v>
+        <v>1669410.976325331</v>
       </c>
       <c r="AE2" t="n">
-        <v>2141347.713015607</v>
+        <v>2284161.747022693</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.078278726866672e-06</v>
+        <v>1.964389665405712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.75086805555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1936980.492685788</v>
+        <v>2066164.555727993</v>
       </c>
     </row>
     <row r="3">
@@ -6388,28 +6388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1017.455809231275</v>
+        <v>1093.343604117034</v>
       </c>
       <c r="AB3" t="n">
-        <v>1392.12792517257</v>
+        <v>1495.96095406849</v>
       </c>
       <c r="AC3" t="n">
-        <v>1259.265189857913</v>
+        <v>1353.188540206579</v>
       </c>
       <c r="AD3" t="n">
-        <v>1017455.809231275</v>
+        <v>1093343.604117034</v>
       </c>
       <c r="AE3" t="n">
-        <v>1392127.92517257</v>
+        <v>1495960.95406849</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.368624193959477e-06</v>
+        <v>2.49333605073584e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.34765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1259265.189857913</v>
+        <v>1353188.540206579</v>
       </c>
     </row>
     <row r="4">
@@ -6494,28 +6494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>857.0012214561068</v>
+        <v>932.8036754872942</v>
       </c>
       <c r="AB4" t="n">
-        <v>1172.586879421766</v>
+        <v>1276.303141195489</v>
       </c>
       <c r="AC4" t="n">
-        <v>1060.676833385774</v>
+        <v>1154.4945607025</v>
       </c>
       <c r="AD4" t="n">
-        <v>857001.2214561068</v>
+        <v>932803.6754872942</v>
       </c>
       <c r="AE4" t="n">
-        <v>1172586.879421766</v>
+        <v>1276303.141195489</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.471832934215122e-06</v>
+        <v>2.68135996114616e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.20182291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1060676.833385773</v>
+        <v>1154494.5607025</v>
       </c>
     </row>
     <row r="5">
@@ -6600,28 +6600,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>833.2049080131671</v>
+        <v>899.6814129745252</v>
       </c>
       <c r="AB5" t="n">
-        <v>1140.027713549879</v>
+        <v>1230.983800374426</v>
       </c>
       <c r="AC5" t="n">
-        <v>1031.225068607623</v>
+        <v>1113.500434163305</v>
       </c>
       <c r="AD5" t="n">
-        <v>833204.9080131671</v>
+        <v>899681.4129745252</v>
       </c>
       <c r="AE5" t="n">
-        <v>1140027.713549879</v>
+        <v>1230983.800374426</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.487298779408276e-06</v>
+        <v>2.709535372296556e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.04340277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1031225.068607623</v>
+        <v>1113500.434163305</v>
       </c>
     </row>
   </sheetData>
@@ -6897,28 +6897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>789.6693028826767</v>
+        <v>868.8078117317109</v>
       </c>
       <c r="AB2" t="n">
-        <v>1080.460377954997</v>
+        <v>1188.741177106849</v>
       </c>
       <c r="AC2" t="n">
-        <v>977.3427559186358</v>
+        <v>1075.289387572491</v>
       </c>
       <c r="AD2" t="n">
-        <v>789669.3028826767</v>
+        <v>868807.8117317109</v>
       </c>
       <c r="AE2" t="n">
-        <v>1080460.377954997</v>
+        <v>1188741.177106849</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.441152554705232e-06</v>
+        <v>2.824194667195146e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.85546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>977342.7559186359</v>
+        <v>1075289.387572492</v>
       </c>
     </row>
     <row r="3">
@@ -7003,28 +7003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>702.7359875001854</v>
+        <v>781.789155494648</v>
       </c>
       <c r="AB3" t="n">
-        <v>961.5143806214745</v>
+        <v>1069.678412651129</v>
       </c>
       <c r="AC3" t="n">
-        <v>869.7487976288689</v>
+        <v>967.5898062507857</v>
       </c>
       <c r="AD3" t="n">
-        <v>702735.9875001854</v>
+        <v>781789.1554946479</v>
       </c>
       <c r="AE3" t="n">
-        <v>961514.3806214745</v>
+        <v>1069678.412651129</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.52051388762065e-06</v>
+        <v>2.979717309450785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.9765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>869748.797628869</v>
+        <v>967589.8062507857</v>
       </c>
     </row>
   </sheetData>
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3108.42711343472</v>
+        <v>3250.887004294945</v>
       </c>
       <c r="AB2" t="n">
-        <v>4253.087110727432</v>
+        <v>4448.007018289222</v>
       </c>
       <c r="AC2" t="n">
-        <v>3847.178446124695</v>
+        <v>4023.49547128059</v>
       </c>
       <c r="AD2" t="n">
-        <v>3108427.11343472</v>
+        <v>3250887.004294945</v>
       </c>
       <c r="AE2" t="n">
-        <v>4253087.110727431</v>
+        <v>4448007.018289222</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.539725109826468e-07</v>
+        <v>1.297195535958377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.55208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3847178.446124695</v>
+        <v>4023495.47128059</v>
       </c>
     </row>
     <row r="3">
@@ -7406,28 +7406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1631.135016701308</v>
+        <v>1732.806740746898</v>
       </c>
       <c r="AB3" t="n">
-        <v>2231.790890448943</v>
+        <v>2370.902628728016</v>
       </c>
       <c r="AC3" t="n">
-        <v>2018.791900202683</v>
+        <v>2144.627009424953</v>
       </c>
       <c r="AD3" t="n">
-        <v>1631135.016701308</v>
+        <v>1732806.740746898</v>
       </c>
       <c r="AE3" t="n">
-        <v>2231790.890448943</v>
+        <v>2370902.628728016</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.10985289638743e-06</v>
+        <v>1.909481051090184e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.71744791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2018791.900202683</v>
+        <v>2144627.009424953</v>
       </c>
     </row>
     <row r="4">
@@ -7512,28 +7512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1339.020037796821</v>
+        <v>1430.516055352395</v>
       </c>
       <c r="AB4" t="n">
-        <v>1832.106289108488</v>
+        <v>1957.295176847435</v>
       </c>
       <c r="AC4" t="n">
-        <v>1657.2526362533</v>
+        <v>1770.493672250149</v>
       </c>
       <c r="AD4" t="n">
-        <v>1339020.037796821</v>
+        <v>1430516.055352395</v>
       </c>
       <c r="AE4" t="n">
-        <v>1832106.289108488</v>
+        <v>1957295.176847435</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.244049857209783e-06</v>
+        <v>2.140364400260382e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.69704861111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1657252.6362533</v>
+        <v>1770493.672250149</v>
       </c>
     </row>
     <row r="5">
@@ -7618,28 +7618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1198.669430559791</v>
+        <v>1280.07508247992</v>
       </c>
       <c r="AB5" t="n">
-        <v>1640.07239645499</v>
+        <v>1751.455200776007</v>
       </c>
       <c r="AC5" t="n">
-        <v>1483.54618879339</v>
+        <v>1584.298774596757</v>
       </c>
       <c r="AD5" t="n">
-        <v>1198669.430559791</v>
+        <v>1280075.08247992</v>
       </c>
       <c r="AE5" t="n">
-        <v>1640072.39645499</v>
+        <v>1751455.200776007</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.316221403900263e-06</v>
+        <v>2.264534190042357e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.78125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1483546.188793391</v>
+        <v>1584298.774596757</v>
       </c>
     </row>
     <row r="6">
@@ -7724,28 +7724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1120.479317777117</v>
+        <v>1201.714377496653</v>
       </c>
       <c r="AB6" t="n">
-        <v>1533.089234641412</v>
+        <v>1644.238627187582</v>
       </c>
       <c r="AC6" t="n">
-        <v>1386.77334979149</v>
+        <v>1487.314800312206</v>
       </c>
       <c r="AD6" t="n">
-        <v>1120479.317777117</v>
+        <v>1201714.377496653</v>
       </c>
       <c r="AE6" t="n">
-        <v>1533089.234641412</v>
+        <v>1644238.627187582</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.358050271146603e-06</v>
+        <v>2.336499970061883e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.29513888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1386773.34979149</v>
+        <v>1487314.800312206</v>
       </c>
     </row>
     <row r="7">
@@ -7830,28 +7830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1042.090757694974</v>
+        <v>1123.411068760531</v>
       </c>
       <c r="AB7" t="n">
-        <v>1425.834548477826</v>
+        <v>1537.100585676645</v>
       </c>
       <c r="AC7" t="n">
-        <v>1289.754900342459</v>
+        <v>1390.401863113887</v>
       </c>
       <c r="AD7" t="n">
-        <v>1042090.757694974</v>
+        <v>1123411.068760531</v>
       </c>
       <c r="AE7" t="n">
-        <v>1425834.548477826</v>
+        <v>1537100.585676645</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.390307315224444e-06</v>
+        <v>2.391997608200511e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.94140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1289754.900342459</v>
+        <v>1390401.863113887</v>
       </c>
     </row>
     <row r="8">
@@ -7936,28 +7936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>992.8952210228642</v>
+        <v>1074.215532088421</v>
       </c>
       <c r="AB8" t="n">
-        <v>1358.523044849143</v>
+        <v>1469.789082047962</v>
       </c>
       <c r="AC8" t="n">
-        <v>1228.867512147808</v>
+        <v>1329.514474919237</v>
       </c>
       <c r="AD8" t="n">
-        <v>992895.2210228642</v>
+        <v>1074215.532088421</v>
       </c>
       <c r="AE8" t="n">
-        <v>1358523.044849143</v>
+        <v>1469789.082047962</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.408015188086166e-06</v>
+        <v>2.422463670680174e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.75260416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1228867.512147808</v>
+        <v>1329514.474919236</v>
       </c>
     </row>
     <row r="9">
@@ -8042,28 +8042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>988.1293996664118</v>
+        <v>1069.449710731969</v>
       </c>
       <c r="AB9" t="n">
-        <v>1352.002237816045</v>
+        <v>1463.268275014864</v>
       </c>
       <c r="AC9" t="n">
-        <v>1222.96904178594</v>
+        <v>1323.616004557368</v>
       </c>
       <c r="AD9" t="n">
-        <v>988129.3996664118</v>
+        <v>1069449.710731969</v>
       </c>
       <c r="AE9" t="n">
-        <v>1352002.237816045</v>
+        <v>1463268.275014865</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.411078171500086e-06</v>
+        <v>2.427733476082061e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.72005208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1222969.04178594</v>
+        <v>1323616.004557368</v>
       </c>
     </row>
   </sheetData>
@@ -8339,28 +8339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>679.4113031333576</v>
+        <v>748.2658556507074</v>
       </c>
       <c r="AB2" t="n">
-        <v>929.6005184583306</v>
+        <v>1023.810354861039</v>
       </c>
       <c r="AC2" t="n">
-        <v>840.8807496791887</v>
+        <v>926.0993315199585</v>
       </c>
       <c r="AD2" t="n">
-        <v>679411.3031333575</v>
+        <v>748265.8556507074</v>
       </c>
       <c r="AE2" t="n">
-        <v>929600.5184583307</v>
+        <v>1023810.354861039</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.508412867026722e-06</v>
+        <v>3.023855506091322e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.48003472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>840880.7496791887</v>
+        <v>926099.3315199584</v>
       </c>
     </row>
     <row r="3">
@@ -8445,28 +8445,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>683.1909588548648</v>
+        <v>752.0455113722146</v>
       </c>
       <c r="AB3" t="n">
-        <v>934.7720101631388</v>
+        <v>1028.981846565847</v>
       </c>
       <c r="AC3" t="n">
-        <v>845.5586814739244</v>
+        <v>930.7772633146941</v>
       </c>
       <c r="AD3" t="n">
-        <v>683190.9588548648</v>
+        <v>752045.5113722146</v>
       </c>
       <c r="AE3" t="n">
-        <v>934772.0101631389</v>
+        <v>1028981.846565847</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.511620306294397e-06</v>
+        <v>3.030285332501602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.4453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>845558.6814739243</v>
+        <v>930777.263314694</v>
       </c>
     </row>
   </sheetData>
@@ -8742,28 +8742,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2131.385231298583</v>
+        <v>2248.985660029773</v>
       </c>
       <c r="AB2" t="n">
-        <v>2916.255303542815</v>
+        <v>3077.16139829776</v>
       </c>
       <c r="AC2" t="n">
-        <v>2637.931990362713</v>
+        <v>2783.481433267253</v>
       </c>
       <c r="AD2" t="n">
-        <v>2131385.231298583</v>
+        <v>2248985.660029773</v>
       </c>
       <c r="AE2" t="n">
-        <v>2916255.303542815</v>
+        <v>3077161.39829776</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.237825249345266e-07</v>
+        <v>1.63608749507463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.37673611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2637931.990362713</v>
+        <v>2783481.433267253</v>
       </c>
     </row>
     <row r="3">
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1276.734736207755</v>
+        <v>1364.892409705998</v>
       </c>
       <c r="AB3" t="n">
-        <v>1746.884791640754</v>
+        <v>1867.506009763115</v>
       </c>
       <c r="AC3" t="n">
-        <v>1580.164558894763</v>
+        <v>1689.273857252469</v>
       </c>
       <c r="AD3" t="n">
-        <v>1276734.736207755</v>
+        <v>1364892.409705998</v>
       </c>
       <c r="AE3" t="n">
-        <v>1746884.791640754</v>
+        <v>1867506.009763115</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.245310192505727e-06</v>
+        <v>2.205536886067427e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.34157986111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1580164.558894763</v>
+        <v>1689273.857252469</v>
       </c>
     </row>
     <row r="4">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1066.318496918748</v>
+        <v>1154.476080908439</v>
       </c>
       <c r="AB4" t="n">
-        <v>1458.984010136212</v>
+        <v>1579.605105789024</v>
       </c>
       <c r="AC4" t="n">
-        <v>1319.74062390573</v>
+        <v>1428.849811482209</v>
       </c>
       <c r="AD4" t="n">
-        <v>1066318.496918748</v>
+        <v>1154476.080908439</v>
       </c>
       <c r="AE4" t="n">
-        <v>1458984.010136212</v>
+        <v>1579605.105789024</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.363034497902425e-06</v>
+        <v>2.414035378653152e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.84418402777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1319740.62390573</v>
+        <v>1428849.811482209</v>
       </c>
     </row>
     <row r="5">
@@ -9060,28 +9060,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>961.1338599221291</v>
+        <v>1029.833711640885</v>
       </c>
       <c r="AB5" t="n">
-        <v>1315.065749378758</v>
+        <v>1409.063917323912</v>
       </c>
       <c r="AC5" t="n">
-        <v>1189.55771996442</v>
+        <v>1274.584834688146</v>
       </c>
       <c r="AD5" t="n">
-        <v>961133.8599221291</v>
+        <v>1029833.711640885</v>
       </c>
       <c r="AE5" t="n">
-        <v>1315065.749378758</v>
+        <v>1409063.917323912</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.425230348175406e-06</v>
+        <v>2.524188851067419e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.15190972222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1189557.71996442</v>
+        <v>1274584.834688146</v>
       </c>
     </row>
     <row r="6">
@@ -9166,28 +9166,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>894.6799246365189</v>
+        <v>973.1085977364671</v>
       </c>
       <c r="AB6" t="n">
-        <v>1224.140543380273</v>
+        <v>1331.450113944483</v>
       </c>
       <c r="AC6" t="n">
-        <v>1107.310288012103</v>
+        <v>1204.378383771592</v>
       </c>
       <c r="AD6" t="n">
-        <v>894679.9246365189</v>
+        <v>973108.5977364671</v>
       </c>
       <c r="AE6" t="n">
-        <v>1224140.543380273</v>
+        <v>1331450.113944483</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.452795549016391e-06</v>
+        <v>2.573008870041423e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.86545138888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1107310.288012103</v>
+        <v>1204378.383771592</v>
       </c>
     </row>
     <row r="7">
@@ -9272,28 +9272,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>898.0097452004261</v>
+        <v>976.438418300374</v>
       </c>
       <c r="AB7" t="n">
-        <v>1228.696550777126</v>
+        <v>1336.006121341336</v>
       </c>
       <c r="AC7" t="n">
-        <v>1111.431476457396</v>
+        <v>1208.499572216886</v>
       </c>
       <c r="AD7" t="n">
-        <v>898009.7452004261</v>
+        <v>976438.4183003739</v>
       </c>
       <c r="AE7" t="n">
-        <v>1228696.550777126</v>
+        <v>1336006.121341336</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.453492142539448e-06</v>
+        <v>2.574242588932462e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.85894097222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1111431.476457397</v>
+        <v>1208499.572216886</v>
       </c>
     </row>
   </sheetData>
@@ -9569,28 +9569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2581.003765745042</v>
+        <v>2710.861665564183</v>
       </c>
       <c r="AB2" t="n">
-        <v>3531.443218142464</v>
+        <v>3709.120525601236</v>
       </c>
       <c r="AC2" t="n">
-        <v>3194.4072338145</v>
+        <v>3355.127268421067</v>
       </c>
       <c r="AD2" t="n">
-        <v>2581003.765745041</v>
+        <v>2710861.665564183</v>
       </c>
       <c r="AE2" t="n">
-        <v>3531443.218142464</v>
+        <v>3709120.525601236</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.346279676873877e-07</v>
+        <v>1.455518296596731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.3515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3194407.2338145</v>
+        <v>3355127.268421067</v>
       </c>
     </row>
     <row r="3">
@@ -9675,28 +9675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1442.723809910393</v>
+        <v>1542.575045139506</v>
       </c>
       <c r="AB3" t="n">
-        <v>1973.998365201809</v>
+        <v>2110.619230367881</v>
       </c>
       <c r="AC3" t="n">
-        <v>1785.602731751054</v>
+        <v>1909.184693294265</v>
       </c>
       <c r="AD3" t="n">
-        <v>1442723.809910393</v>
+        <v>1542575.045139506</v>
       </c>
       <c r="AE3" t="n">
-        <v>1973998.365201809</v>
+        <v>2110619.230367881</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.175791899806333e-06</v>
+        <v>2.050478404049063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1785602.731751054</v>
+        <v>1909184.693294265</v>
       </c>
     </row>
     <row r="4">
@@ -9781,28 +9781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1209.053841431816</v>
+        <v>1288.986123636401</v>
       </c>
       <c r="AB4" t="n">
-        <v>1654.280805537969</v>
+        <v>1763.647680413694</v>
       </c>
       <c r="AC4" t="n">
-        <v>1496.398567255117</v>
+        <v>1595.327621090076</v>
       </c>
       <c r="AD4" t="n">
-        <v>1209053.841431816</v>
+        <v>1288986.123636401</v>
       </c>
       <c r="AE4" t="n">
-        <v>1654280.805537969</v>
+        <v>1763647.680413694</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.300011062286909e-06</v>
+        <v>2.267105776696754e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.27604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1496398.567255117</v>
+        <v>1595327.621090076</v>
       </c>
     </row>
     <row r="5">
@@ -9887,28 +9887,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1082.997918218633</v>
+        <v>1162.844859568646</v>
       </c>
       <c r="AB5" t="n">
-        <v>1481.805530202849</v>
+        <v>1591.055637956376</v>
       </c>
       <c r="AC5" t="n">
-        <v>1340.384090127412</v>
+        <v>1439.207520930432</v>
       </c>
       <c r="AD5" t="n">
-        <v>1082997.918218633</v>
+        <v>1162844.859568646</v>
       </c>
       <c r="AE5" t="n">
-        <v>1481805.530202849</v>
+        <v>1591055.637956376</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.367970839562389e-06</v>
+        <v>2.385621694071511e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.46875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1340384.090127412</v>
+        <v>1439207.520930432</v>
       </c>
     </row>
     <row r="6">
@@ -9993,28 +9993,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1002.12569789831</v>
+        <v>1072.14112926364</v>
       </c>
       <c r="AB6" t="n">
-        <v>1371.152590530027</v>
+        <v>1466.950792586903</v>
       </c>
       <c r="AC6" t="n">
-        <v>1240.291711714588</v>
+        <v>1326.947067820777</v>
       </c>
       <c r="AD6" t="n">
-        <v>1002125.69789831</v>
+        <v>1072141.12926364</v>
       </c>
       <c r="AE6" t="n">
-        <v>1371152.590530027</v>
+        <v>1466950.792586903</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.410189754283024e-06</v>
+        <v>2.459247794822256e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.00434027777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1240291.711714588</v>
+        <v>1326947.067820777</v>
       </c>
     </row>
     <row r="7">
@@ -10099,28 +10099,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>940.0001254001206</v>
+        <v>1019.932318096154</v>
       </c>
       <c r="AB7" t="n">
-        <v>1286.149641451181</v>
+        <v>1395.516393857358</v>
       </c>
       <c r="AC7" t="n">
-        <v>1163.401324793439</v>
+        <v>1262.330267847171</v>
       </c>
       <c r="AD7" t="n">
-        <v>940000.1254001206</v>
+        <v>1019932.318096154</v>
       </c>
       <c r="AE7" t="n">
-        <v>1286149.641451181</v>
+        <v>1395516.393857358</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.433785544958299e-06</v>
+        <v>2.500396793394267e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.75911458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1163401.324793439</v>
+        <v>1262330.267847171</v>
       </c>
     </row>
     <row r="8">
@@ -10205,28 +10205,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>941.4481242707402</v>
+        <v>1021.380316966774</v>
       </c>
       <c r="AB8" t="n">
-        <v>1288.130857387164</v>
+        <v>1397.497609793341</v>
       </c>
       <c r="AC8" t="n">
-        <v>1165.193456261146</v>
+        <v>1264.122399314878</v>
       </c>
       <c r="AD8" t="n">
-        <v>941448.1242707402</v>
+        <v>1021380.316966774</v>
       </c>
       <c r="AE8" t="n">
-        <v>1288130.857387164</v>
+        <v>1397497.609793341</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.433005518820273e-06</v>
+        <v>2.499036495920812e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1165193.456261146</v>
+        <v>1264122.399314878</v>
       </c>
     </row>
   </sheetData>
@@ -10502,28 +10502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3746.734701152363</v>
+        <v>3901.710829664084</v>
       </c>
       <c r="AB2" t="n">
-        <v>5126.447712386089</v>
+        <v>5338.492888480089</v>
       </c>
       <c r="AC2" t="n">
-        <v>4637.18673773032</v>
+        <v>4828.994619825174</v>
       </c>
       <c r="AD2" t="n">
-        <v>3746734.701152363</v>
+        <v>3901710.829664084</v>
       </c>
       <c r="AE2" t="n">
-        <v>5126447.712386088</v>
+        <v>5338492.88848009</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.802444635220913e-07</v>
+        <v>1.156370503847839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.02170138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>4637186.73773032</v>
+        <v>4828994.619825174</v>
       </c>
     </row>
     <row r="3">
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1828.420052666217</v>
+        <v>1931.623713704118</v>
       </c>
       <c r="AB3" t="n">
-        <v>2501.724980257648</v>
+        <v>2642.932782313893</v>
       </c>
       <c r="AC3" t="n">
-        <v>2262.96385933492</v>
+        <v>2390.694986949312</v>
       </c>
       <c r="AD3" t="n">
-        <v>1828420.052666217</v>
+        <v>1931623.713704118</v>
       </c>
       <c r="AE3" t="n">
-        <v>2501724.980257648</v>
+        <v>2642932.782313893</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.049447428435921e-06</v>
+        <v>1.783991074765806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.46180555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2262963.85933492</v>
+        <v>2390694.986949312</v>
       </c>
     </row>
     <row r="4">
@@ -10714,28 +10714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1484.562539324914</v>
+        <v>1567.26203142426</v>
       </c>
       <c r="AB4" t="n">
-        <v>2031.243960581229</v>
+        <v>2144.397054115651</v>
       </c>
       <c r="AC4" t="n">
-        <v>1837.384887852159</v>
+        <v>1939.738808951021</v>
       </c>
       <c r="AD4" t="n">
-        <v>1484562.539324914</v>
+        <v>1567262.03142426</v>
       </c>
       <c r="AE4" t="n">
-        <v>2031243.960581229</v>
+        <v>2144397.054115651</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.19061603597371e-06</v>
+        <v>2.023968351435944e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.15494791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1837384.887852159</v>
+        <v>1939738.808951021</v>
       </c>
     </row>
     <row r="5">
@@ -10820,28 +10820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1329.687602008128</v>
+        <v>1412.301753252902</v>
       </c>
       <c r="AB5" t="n">
-        <v>1819.337238744388</v>
+        <v>1932.373565156613</v>
       </c>
       <c r="AC5" t="n">
-        <v>1645.702246134475</v>
+        <v>1747.950544201397</v>
       </c>
       <c r="AD5" t="n">
-        <v>1329687.602008128</v>
+        <v>1412301.753252903</v>
       </c>
       <c r="AE5" t="n">
-        <v>1819337.238744388</v>
+        <v>1932373.565156613</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.265623622778788e-06</v>
+        <v>2.151476277773344e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.13715277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1645702.246134475</v>
+        <v>1747950.544201397</v>
       </c>
     </row>
     <row r="6">
@@ -10926,28 +10926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1230.746762622539</v>
+        <v>1313.446165213334</v>
       </c>
       <c r="AB6" t="n">
-        <v>1683.962017335256</v>
+        <v>1797.114988400129</v>
       </c>
       <c r="AC6" t="n">
-        <v>1523.247045856313</v>
+        <v>1625.600856173948</v>
       </c>
       <c r="AD6" t="n">
-        <v>1230746.762622539</v>
+        <v>1313446.165213334</v>
       </c>
       <c r="AE6" t="n">
-        <v>1683962.017335256</v>
+        <v>1797114.988400129</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.311738701241133e-06</v>
+        <v>2.229868854818923e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.57074652777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1523247.045856313</v>
+        <v>1625600.856173948</v>
       </c>
     </row>
     <row r="7">
@@ -11032,28 +11032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1163.967351708115</v>
+        <v>1246.496162098317</v>
       </c>
       <c r="AB7" t="n">
-        <v>1592.591481222456</v>
+        <v>1705.511040512482</v>
       </c>
       <c r="AC7" t="n">
-        <v>1440.596785470766</v>
+        <v>1542.73946050575</v>
       </c>
       <c r="AD7" t="n">
-        <v>1163967.351708115</v>
+        <v>1246496.162098317</v>
       </c>
       <c r="AE7" t="n">
-        <v>1592591.481222456</v>
+        <v>1705511.040512482</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.3444898181899e-06</v>
+        <v>2.285543583006395e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.19097222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1440596.785470766</v>
+        <v>1542739.46050575</v>
       </c>
     </row>
     <row r="8">
@@ -11138,28 +11138,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1085.698665185877</v>
+        <v>1168.312726922101</v>
       </c>
       <c r="AB8" t="n">
-        <v>1485.50081135198</v>
+        <v>1598.537015294656</v>
       </c>
       <c r="AC8" t="n">
-        <v>1343.726698830029</v>
+        <v>1445.974886115725</v>
       </c>
       <c r="AD8" t="n">
-        <v>1085698.665185877</v>
+        <v>1168312.726922101</v>
       </c>
       <c r="AE8" t="n">
-        <v>1485500.81135198</v>
+        <v>1598537.015294656</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.376017473873339e-06</v>
+        <v>2.339138508129392e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.84157986111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1343726.698830029</v>
+        <v>1445974.886115725</v>
       </c>
     </row>
     <row r="9">
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1049.559661470554</v>
+        <v>1132.173723206778</v>
       </c>
       <c r="AB9" t="n">
-        <v>1436.053832128354</v>
+        <v>1549.09003607103</v>
       </c>
       <c r="AC9" t="n">
-        <v>1298.998869904235</v>
+        <v>1401.247057189931</v>
       </c>
       <c r="AD9" t="n">
-        <v>1049559.661470554</v>
+        <v>1132173.723206778</v>
       </c>
       <c r="AE9" t="n">
-        <v>1436053.832128354</v>
+        <v>1549090.03607103</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.385711051590934e-06</v>
+        <v>2.355616947794075e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.73958333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1298998.869904235</v>
+        <v>1401247.057189931</v>
       </c>
     </row>
     <row r="10">
@@ -11350,28 +11350,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1033.905429521616</v>
+        <v>1116.51949125784</v>
       </c>
       <c r="AB10" t="n">
-        <v>1414.635021359845</v>
+        <v>1527.671225302521</v>
       </c>
       <c r="AC10" t="n">
-        <v>1279.624240373983</v>
+        <v>1381.872427659679</v>
       </c>
       <c r="AD10" t="n">
-        <v>1033905.429521617</v>
+        <v>1116519.49125784</v>
       </c>
       <c r="AE10" t="n">
-        <v>1414635.021359845</v>
+        <v>1527671.225302521</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.391640133107521e-06</v>
+        <v>2.365695993414221e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.67664930555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1279624.240373983</v>
+        <v>1381872.427659679</v>
       </c>
     </row>
     <row r="11">
@@ -11456,28 +11456,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1038.1622484036</v>
+        <v>1120.776310139823</v>
       </c>
       <c r="AB11" t="n">
-        <v>1420.459388751769</v>
+        <v>1533.495592694445</v>
       </c>
       <c r="AC11" t="n">
-        <v>1284.892738316573</v>
+        <v>1387.140925602269</v>
       </c>
       <c r="AD11" t="n">
-        <v>1038162.248403599</v>
+        <v>1120776.310139823</v>
       </c>
       <c r="AE11" t="n">
-        <v>1420459.388751769</v>
+        <v>1533495.592694445</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.39126368348742e-06</v>
+        <v>2.365056054009767e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.68098958333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1284892.738316573</v>
+        <v>1387140.925602269</v>
       </c>
     </row>
   </sheetData>
@@ -11753,28 +11753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1743.089766799557</v>
+        <v>1848.779376772251</v>
       </c>
       <c r="AB2" t="n">
-        <v>2384.972318628357</v>
+        <v>2529.581505689513</v>
       </c>
       <c r="AC2" t="n">
-        <v>2157.353907868138</v>
+        <v>2288.161797076446</v>
       </c>
       <c r="AD2" t="n">
-        <v>1743089.766799557</v>
+        <v>1848779.376772251</v>
       </c>
       <c r="AE2" t="n">
-        <v>2384972.318628357</v>
+        <v>2529581.505689512</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.02303939221509e-06</v>
+        <v>1.844782116146723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.59722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2157353.907868139</v>
+        <v>2288161.797076446</v>
       </c>
     </row>
     <row r="3">
@@ -11859,28 +11859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1101.769437469203</v>
+        <v>1188.157413865018</v>
       </c>
       <c r="AB3" t="n">
-        <v>1507.489550982461</v>
+        <v>1625.689391455754</v>
       </c>
       <c r="AC3" t="n">
-        <v>1363.616864011568</v>
+        <v>1470.535877604608</v>
       </c>
       <c r="AD3" t="n">
-        <v>1101769.437469203</v>
+        <v>1188157.413865018</v>
       </c>
       <c r="AE3" t="n">
-        <v>1507489.550982461</v>
+        <v>1625689.391455754</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.32431064635168e-06</v>
+        <v>2.38804548016724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.68402777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1363616.864011568</v>
+        <v>1470535.877604607</v>
       </c>
     </row>
     <row r="4">
@@ -11965,28 +11965,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>930.528819713035</v>
+        <v>1007.223398401675</v>
       </c>
       <c r="AB4" t="n">
-        <v>1273.190583165593</v>
+        <v>1378.127489253405</v>
       </c>
       <c r="AC4" t="n">
-        <v>1151.679060842475</v>
+        <v>1246.600935893139</v>
       </c>
       <c r="AD4" t="n">
-        <v>930528.819713035</v>
+        <v>1007223.398401675</v>
       </c>
       <c r="AE4" t="n">
-        <v>1273190.583165593</v>
+        <v>1378127.489253405</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.432132970829763e-06</v>
+        <v>2.582474646269885e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.4296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1151679.060842475</v>
+        <v>1246600.935893138</v>
       </c>
     </row>
     <row r="5">
@@ -12071,28 +12071,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>846.8204711507112</v>
+        <v>923.6003011853717</v>
       </c>
       <c r="AB5" t="n">
-        <v>1158.657127710919</v>
+        <v>1263.71067845138</v>
       </c>
       <c r="AC5" t="n">
-        <v>1048.076517627681</v>
+        <v>1143.103904929056</v>
       </c>
       <c r="AD5" t="n">
-        <v>846820.4711507112</v>
+        <v>923600.3011853717</v>
       </c>
       <c r="AE5" t="n">
-        <v>1158657.127710919</v>
+        <v>1263710.67845138</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.475608072389859e-06</v>
+        <v>2.66087054232827e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.97395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1048076.517627681</v>
+        <v>1143103.904929056</v>
       </c>
     </row>
     <row r="6">
@@ -12177,28 +12177,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>850.063413850755</v>
+        <v>926.8432438854152</v>
       </c>
       <c r="AB6" t="n">
-        <v>1163.094264981654</v>
+        <v>1268.147815722114</v>
       </c>
       <c r="AC6" t="n">
-        <v>1052.090180744857</v>
+        <v>1147.117568046233</v>
       </c>
       <c r="AD6" t="n">
-        <v>850063.413850755</v>
+        <v>926843.2438854151</v>
       </c>
       <c r="AE6" t="n">
-        <v>1163094.264981654</v>
+        <v>1268147.815722114</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.476626224651219e-06</v>
+        <v>2.662706511790996e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.96310763888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1052090.180744857</v>
+        <v>1147117.568046233</v>
       </c>
     </row>
   </sheetData>
@@ -12474,28 +12474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1248.088835272132</v>
+        <v>1340.435448066302</v>
       </c>
       <c r="AB2" t="n">
-        <v>1707.690206212677</v>
+        <v>1834.042915882686</v>
       </c>
       <c r="AC2" t="n">
-        <v>1544.710649689996</v>
+        <v>1659.004434086241</v>
       </c>
       <c r="AD2" t="n">
-        <v>1248088.835272132</v>
+        <v>1340435.448066302</v>
       </c>
       <c r="AE2" t="n">
-        <v>1707690.206212677</v>
+        <v>1834042.915882686</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.200785451257035e-06</v>
+        <v>2.240281829696368e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1544710.649689996</v>
+        <v>1659004.434086241</v>
       </c>
     </row>
     <row r="3">
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>838.7581889234038</v>
+        <v>912.7719529192138</v>
       </c>
       <c r="AB3" t="n">
-        <v>1147.625957484728</v>
+        <v>1248.894854640612</v>
       </c>
       <c r="AC3" t="n">
-        <v>1038.098146805532</v>
+        <v>1129.702082548649</v>
       </c>
       <c r="AD3" t="n">
-        <v>838758.1889234039</v>
+        <v>912771.9529192138</v>
       </c>
       <c r="AE3" t="n">
-        <v>1147625.957484728</v>
+        <v>1248894.854640612</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.464444931192116e-06</v>
+        <v>2.732186142417193e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.71614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1038098.146805533</v>
+        <v>1129702.082548649</v>
       </c>
     </row>
     <row r="4">
@@ -12686,28 +12686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>781.0914912105071</v>
+        <v>854.9346630057248</v>
       </c>
       <c r="AB4" t="n">
-        <v>1068.723837598792</v>
+        <v>1169.759322979829</v>
       </c>
       <c r="AC4" t="n">
-        <v>966.7263345016891</v>
+        <v>1058.119134962154</v>
       </c>
       <c r="AD4" t="n">
-        <v>781091.4912105071</v>
+        <v>854934.6630057248</v>
       </c>
       <c r="AE4" t="n">
-        <v>1068723.837598792</v>
+        <v>1169759.322979829</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.508458882991415e-06</v>
+        <v>2.814302107734627e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.25824652777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>966726.3345016891</v>
+        <v>1058119.134962154</v>
       </c>
     </row>
   </sheetData>
@@ -22812,28 +22812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>943.3438876402211</v>
+        <v>1024.045291458656</v>
       </c>
       <c r="AB2" t="n">
-        <v>1290.724724464465</v>
+        <v>1401.14394546351</v>
       </c>
       <c r="AC2" t="n">
-        <v>1167.539768305104</v>
+        <v>1267.420733826351</v>
       </c>
       <c r="AD2" t="n">
-        <v>943343.887640221</v>
+        <v>1024045.291458655</v>
       </c>
       <c r="AE2" t="n">
-        <v>1290724.724464465</v>
+        <v>1401143.94546351</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.349236003637322e-06</v>
+        <v>2.5946308695333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.64756944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1167539.768305104</v>
+        <v>1267420.733826351</v>
       </c>
     </row>
     <row r="3">
@@ -22918,28 +22918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>728.1190416130396</v>
+        <v>799.8536227849811</v>
       </c>
       <c r="AB3" t="n">
-        <v>996.244595079996</v>
+        <v>1094.395013745814</v>
       </c>
       <c r="AC3" t="n">
-        <v>901.1644091636314</v>
+        <v>989.9474896269614</v>
       </c>
       <c r="AD3" t="n">
-        <v>728119.0416130396</v>
+        <v>799853.6227849812</v>
       </c>
       <c r="AE3" t="n">
-        <v>996244.5950799959</v>
+        <v>1094395.013745814</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.521264142660198e-06</v>
+        <v>2.92544736029832e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.65104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>901164.4091636314</v>
+        <v>989947.4896269614</v>
       </c>
     </row>
   </sheetData>
@@ -23215,28 +23215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>655.3740104989334</v>
+        <v>730.822019049265</v>
       </c>
       <c r="AB2" t="n">
-        <v>896.7116342254033</v>
+        <v>999.9429280551882</v>
       </c>
       <c r="AC2" t="n">
-        <v>811.130734397613</v>
+        <v>904.5097784303141</v>
       </c>
       <c r="AD2" t="n">
-        <v>655374.0104989335</v>
+        <v>730822.019049265</v>
       </c>
       <c r="AE2" t="n">
-        <v>896711.6342254033</v>
+        <v>999942.9280551882</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.476991610931789e-06</v>
+        <v>3.046441894366373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.30251736111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>811130.734397613</v>
+        <v>904509.7784303142</v>
       </c>
     </row>
   </sheetData>
@@ -23512,28 +23512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2346.058691088521</v>
+        <v>2464.896151384749</v>
       </c>
       <c r="AB2" t="n">
-        <v>3209.98100195223</v>
+        <v>3372.579657868272</v>
       </c>
       <c r="AC2" t="n">
-        <v>2903.624920362418</v>
+        <v>3050.705388766476</v>
       </c>
       <c r="AD2" t="n">
-        <v>2346058.691088521</v>
+        <v>2464896.151384749</v>
       </c>
       <c r="AE2" t="n">
-        <v>3209981.00195223</v>
+        <v>3372579.657868272</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.784115424843878e-07</v>
+        <v>1.543334428763545e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.32942708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2903624.920362419</v>
+        <v>3050705.388766475</v>
       </c>
     </row>
     <row r="3">
@@ -23618,28 +23618,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1357.866413146121</v>
+        <v>1447.058446877808</v>
       </c>
       <c r="AB3" t="n">
-        <v>1857.8927313048</v>
+        <v>1979.929206731312</v>
       </c>
       <c r="AC3" t="n">
-        <v>1680.578056597895</v>
+        <v>1790.96754208897</v>
       </c>
       <c r="AD3" t="n">
-        <v>1357866.413146121</v>
+        <v>1447058.446877808</v>
       </c>
       <c r="AE3" t="n">
-        <v>1857892.7313048</v>
+        <v>1979929.206731312</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.210376263304441e-06</v>
+        <v>2.126583347974522e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.65625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1680578.056597895</v>
+        <v>1790967.54208897</v>
       </c>
     </row>
     <row r="4">
@@ -23724,28 +23724,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1142.590624647468</v>
+        <v>1221.787181062947</v>
       </c>
       <c r="AB4" t="n">
-        <v>1563.34290018344</v>
+        <v>1671.703122576579</v>
       </c>
       <c r="AC4" t="n">
-        <v>1414.139647955473</v>
+        <v>1512.158122807938</v>
       </c>
       <c r="AD4" t="n">
-        <v>1142590.624647468</v>
+        <v>1221787.181062947</v>
       </c>
       <c r="AE4" t="n">
-        <v>1563342.90018344</v>
+        <v>1671703.122576579</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.331010135450559e-06</v>
+        <v>2.338532302597318e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.05685763888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1414139.647955473</v>
+        <v>1512158.122807938</v>
       </c>
     </row>
     <row r="5">
@@ -23830,28 +23830,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1022.839399132795</v>
+        <v>1101.950614693702</v>
       </c>
       <c r="AB5" t="n">
-        <v>1399.493990383054</v>
+        <v>1507.737445653995</v>
       </c>
       <c r="AC5" t="n">
-        <v>1265.928248143046</v>
+        <v>1363.841099963573</v>
       </c>
       <c r="AD5" t="n">
-        <v>1022839.399132795</v>
+        <v>1101950.614693702</v>
       </c>
       <c r="AE5" t="n">
-        <v>1399493.990383054</v>
+        <v>1507737.445653995</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.395512328312361e-06</v>
+        <v>2.451860110987466e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.31467013888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1265928.248143046</v>
+        <v>1363841.099963573</v>
       </c>
     </row>
     <row r="6">
@@ -23936,28 +23936,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>933.5661160931911</v>
+        <v>1012.762583000119</v>
       </c>
       <c r="AB6" t="n">
-        <v>1277.346346068982</v>
+        <v>1385.706445992573</v>
       </c>
       <c r="AC6" t="n">
-        <v>1155.438203567015</v>
+        <v>1253.456567638253</v>
       </c>
       <c r="AD6" t="n">
-        <v>933566.1160931911</v>
+        <v>1012762.583000119</v>
       </c>
       <c r="AE6" t="n">
-        <v>1277346.346068983</v>
+        <v>1385706.445992573</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.43677403641785e-06</v>
+        <v>2.524355304446202e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.87413194444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1155438.203567015</v>
+        <v>1253456.567638253</v>
       </c>
     </row>
     <row r="7">
@@ -24042,28 +24042,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>918.8157925594221</v>
+        <v>998.0122594663496</v>
       </c>
       <c r="AB7" t="n">
-        <v>1257.164302671732</v>
+        <v>1365.524402595323</v>
       </c>
       <c r="AC7" t="n">
-        <v>1137.182306065922</v>
+        <v>1235.200670137161</v>
       </c>
       <c r="AD7" t="n">
-        <v>918815.7925594221</v>
+        <v>998012.2594663496</v>
       </c>
       <c r="AE7" t="n">
-        <v>1257164.302671732</v>
+        <v>1365524.402595323</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.442288727715958e-06</v>
+        <v>2.534044399514672e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.81770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1137182.306065922</v>
+        <v>1235200.670137161</v>
       </c>
     </row>
     <row r="8">
@@ -24148,28 +24148,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>923.4666437526135</v>
+        <v>1002.663110659541</v>
       </c>
       <c r="AB8" t="n">
-        <v>1263.52780245533</v>
+        <v>1371.887902378921</v>
       </c>
       <c r="AC8" t="n">
-        <v>1142.938482361402</v>
+        <v>1240.956846432641</v>
       </c>
       <c r="AD8" t="n">
-        <v>923466.6437526136</v>
+        <v>1002663.110659541</v>
       </c>
       <c r="AE8" t="n">
-        <v>1263527.80245533</v>
+        <v>1371887.902378921</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.442091774455311e-06</v>
+        <v>2.533698360405084e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.81987847222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1142938.482361402</v>
+        <v>1240956.846432641</v>
       </c>
     </row>
   </sheetData>
@@ -24445,28 +24445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3408.315517894566</v>
+        <v>3562.098778626227</v>
       </c>
       <c r="AB2" t="n">
-        <v>4663.407655852083</v>
+        <v>4873.820697623797</v>
       </c>
       <c r="AC2" t="n">
-        <v>4218.338574311137</v>
+        <v>4408.670090692708</v>
       </c>
       <c r="AD2" t="n">
-        <v>3408315.517894566</v>
+        <v>3562098.778626227</v>
       </c>
       <c r="AE2" t="n">
-        <v>4663407.655852083</v>
+        <v>4873820.697623797</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.162690803402524e-07</v>
+        <v>1.22474030463968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>4218338.574311136</v>
+        <v>4408670.090692708</v>
       </c>
     </row>
     <row r="3">
@@ -24551,28 +24551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1733.886361974805</v>
+        <v>1826.207612435097</v>
       </c>
       <c r="AB3" t="n">
-        <v>2372.379814121567</v>
+        <v>2498.697821927454</v>
       </c>
       <c r="AC3" t="n">
-        <v>2145.963214317785</v>
+        <v>2260.225608747117</v>
       </c>
       <c r="AD3" t="n">
-        <v>1733886.361974805</v>
+        <v>1826207.612435096</v>
       </c>
       <c r="AE3" t="n">
-        <v>2372379.814121567</v>
+        <v>2498697.821927454</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.078958590814609e-06</v>
+        <v>1.844898948562952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.08637152777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2145963.214317785</v>
+        <v>2260225.608747117</v>
       </c>
     </row>
     <row r="4">
@@ -24657,28 +24657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1405.668597109319</v>
+        <v>1497.904417206487</v>
       </c>
       <c r="AB4" t="n">
-        <v>1923.297788286766</v>
+        <v>2049.498906500907</v>
       </c>
       <c r="AC4" t="n">
-        <v>1739.740946738076</v>
+        <v>1853.897607354242</v>
       </c>
       <c r="AD4" t="n">
-        <v>1405668.597109319</v>
+        <v>1497904.417206487</v>
       </c>
       <c r="AE4" t="n">
-        <v>1923297.788286766</v>
+        <v>2049498.906500907</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.21722091859094e-06</v>
+        <v>2.081312120775461e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.91840277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1739740.946738076</v>
+        <v>1853897.607354242</v>
       </c>
     </row>
     <row r="5">
@@ -24763,28 +24763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1261.766929323701</v>
+        <v>1353.917408566298</v>
       </c>
       <c r="AB5" t="n">
-        <v>1726.405177928955</v>
+        <v>1852.4895290209</v>
       </c>
       <c r="AC5" t="n">
-        <v>1561.639490772301</v>
+        <v>1675.690528356528</v>
       </c>
       <c r="AD5" t="n">
-        <v>1261766.929323701</v>
+        <v>1353917.408566298</v>
       </c>
       <c r="AE5" t="n">
-        <v>1726405.177928956</v>
+        <v>1852489.5290209</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.288582120023885e-06</v>
+        <v>2.203331822562562e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.98090277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1561639.490772301</v>
+        <v>1675690.528356528</v>
       </c>
     </row>
     <row r="6">
@@ -24869,28 +24869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1174.669943596563</v>
+        <v>1256.562605575295</v>
       </c>
       <c r="AB6" t="n">
-        <v>1607.235239609261</v>
+        <v>1719.284392577826</v>
       </c>
       <c r="AC6" t="n">
-        <v>1453.842964109779</v>
+        <v>1555.198303180998</v>
       </c>
       <c r="AD6" t="n">
-        <v>1174669.943596563</v>
+        <v>1256562.605575295</v>
       </c>
       <c r="AE6" t="n">
-        <v>1607235.239609261</v>
+        <v>1719284.392577826</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.335650146500934e-06</v>
+        <v>2.283812902464692e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.41883680555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1453842.964109779</v>
+        <v>1555198.303180998</v>
       </c>
     </row>
     <row r="7">
@@ -24975,28 +24975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1107.438733060253</v>
+        <v>1179.244169975713</v>
       </c>
       <c r="AB7" t="n">
-        <v>1515.246531321805</v>
+        <v>1613.49389794184</v>
       </c>
       <c r="AC7" t="n">
-        <v>1370.633529034315</v>
+        <v>1459.504304875179</v>
       </c>
       <c r="AD7" t="n">
-        <v>1107438.733060253</v>
+        <v>1179244.169975713</v>
       </c>
       <c r="AE7" t="n">
-        <v>1515246.531321805</v>
+        <v>1613493.89794184</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.366870672127848e-06</v>
+        <v>2.337196521996549e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.06510416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1370633.529034315</v>
+        <v>1459504.304875179</v>
       </c>
     </row>
     <row r="8">
@@ -25081,28 +25081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1051.256252397399</v>
+        <v>1133.234165722152</v>
       </c>
       <c r="AB8" t="n">
-        <v>1438.375182682772</v>
+        <v>1550.540980303987</v>
       </c>
       <c r="AC8" t="n">
-        <v>1301.098674019775</v>
+        <v>1402.559525341707</v>
       </c>
       <c r="AD8" t="n">
-        <v>1051256.252397399</v>
+        <v>1133234.165722152</v>
       </c>
       <c r="AE8" t="n">
-        <v>1438375.182682771</v>
+        <v>1550540.980303986</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.383667125124698e-06</v>
+        <v>2.365916584784205e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.8828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1301098.674019775</v>
+        <v>1402559.525341707</v>
       </c>
     </row>
     <row r="9">
@@ -25187,28 +25187,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1008.222003761845</v>
+        <v>1090.199917086598</v>
       </c>
       <c r="AB9" t="n">
-        <v>1379.493825162549</v>
+        <v>1491.659622783764</v>
       </c>
       <c r="AC9" t="n">
-        <v>1247.836870620778</v>
+        <v>1349.29772194271</v>
       </c>
       <c r="AD9" t="n">
-        <v>1008222.003761845</v>
+        <v>1090199.917086598</v>
       </c>
       <c r="AE9" t="n">
-        <v>1379493.825162549</v>
+        <v>1491659.622783764</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.401697215912277e-06</v>
+        <v>2.396746030714456e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.69184027777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>1247836.870620779</v>
+        <v>1349297.72194271</v>
       </c>
     </row>
     <row r="10">
@@ -25293,28 +25293,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1012.874467559287</v>
+        <v>1094.85238088404</v>
       </c>
       <c r="AB10" t="n">
-        <v>1385.859531382426</v>
+        <v>1498.025329003641</v>
       </c>
       <c r="AC10" t="n">
-        <v>1253.595042773355</v>
+        <v>1355.055894095287</v>
       </c>
       <c r="AD10" t="n">
-        <v>1012874.467559287</v>
+        <v>1094852.38088404</v>
       </c>
       <c r="AE10" t="n">
-        <v>1385859.531382426</v>
+        <v>1498025.32900364</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.401127844624248e-06</v>
+        <v>2.395772469264027e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.69835069444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1253595.042773355</v>
+        <v>1355055.894095287</v>
       </c>
     </row>
   </sheetData>
@@ -25590,28 +25590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>638.7171582299487</v>
+        <v>719.925850696829</v>
       </c>
       <c r="AB2" t="n">
-        <v>873.9209941025192</v>
+        <v>985.0343098103641</v>
       </c>
       <c r="AC2" t="n">
-        <v>790.5152009811927</v>
+        <v>891.024017786399</v>
       </c>
       <c r="AD2" t="n">
-        <v>638717.1582299487</v>
+        <v>719925.850696829</v>
       </c>
       <c r="AE2" t="n">
-        <v>873920.9941025192</v>
+        <v>985034.3098103642</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.382496668621621e-06</v>
+        <v>2.963327125634644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>790515.2009811928</v>
+        <v>891024.017786399</v>
       </c>
     </row>
   </sheetData>
@@ -25887,28 +25887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1399.091614947344</v>
+        <v>1502.081616964074</v>
       </c>
       <c r="AB2" t="n">
-        <v>1914.298871136777</v>
+        <v>2055.214335494285</v>
       </c>
       <c r="AC2" t="n">
-        <v>1731.600873610823</v>
+        <v>1859.067563826147</v>
       </c>
       <c r="AD2" t="n">
-        <v>1399091.614947344</v>
+        <v>1502081.616964074</v>
       </c>
       <c r="AE2" t="n">
-        <v>1914298.871136777</v>
+        <v>2055214.335494286</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.136566222838845e-06</v>
+        <v>2.094046587258581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.95442708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1731600.873610823</v>
+        <v>1859067.563826147</v>
       </c>
     </row>
     <row r="3">
@@ -25993,28 +25993,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>935.9086121207459</v>
+        <v>1010.84931257536</v>
       </c>
       <c r="AB3" t="n">
-        <v>1280.551452477514</v>
+        <v>1383.088624989885</v>
       </c>
       <c r="AC3" t="n">
-        <v>1158.337419118311</v>
+        <v>1251.088587797927</v>
       </c>
       <c r="AD3" t="n">
-        <v>935908.6121207459</v>
+        <v>1010849.312575361</v>
       </c>
       <c r="AE3" t="n">
-        <v>1280551.452477514</v>
+        <v>1383088.624989885</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.4134180779469e-06</v>
+        <v>2.604127452513568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.04600694444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1158337.419118311</v>
+        <v>1251088.587797927</v>
       </c>
     </row>
     <row r="4">
@@ -26099,28 +26099,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>807.8189053353868</v>
+        <v>873.4667026694937</v>
       </c>
       <c r="AB4" t="n">
-        <v>1105.293464734744</v>
+        <v>1195.115677223686</v>
       </c>
       <c r="AC4" t="n">
-        <v>999.8058077495804</v>
+        <v>1081.055514344844</v>
       </c>
       <c r="AD4" t="n">
-        <v>807818.9053353869</v>
+        <v>873466.7026694936</v>
       </c>
       <c r="AE4" t="n">
-        <v>1105293.464734744</v>
+        <v>1195115.677223686</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.49681852354004e-06</v>
+        <v>2.757787146916542e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.15190972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>999805.8077495804</v>
+        <v>1081055.514344844</v>
       </c>
     </row>
     <row r="5">
@@ -26205,28 +26205,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>810.7086838772318</v>
+        <v>876.3564812113385</v>
       </c>
       <c r="AB5" t="n">
-        <v>1109.247387223728</v>
+        <v>1199.069599712669</v>
       </c>
       <c r="AC5" t="n">
-        <v>1003.382373425581</v>
+        <v>1084.632080020845</v>
       </c>
       <c r="AD5" t="n">
-        <v>810708.6838772318</v>
+        <v>876356.4812113385</v>
       </c>
       <c r="AE5" t="n">
-        <v>1109247.387223728</v>
+        <v>1199069.599712669</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.4982816892522e-06</v>
+        <v>2.760482931028875e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.13888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1003382.373425581</v>
+        <v>1084632.080020844</v>
       </c>
     </row>
   </sheetData>
@@ -26502,28 +26502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1930.951974184882</v>
+        <v>2047.261212020547</v>
       </c>
       <c r="AB2" t="n">
-        <v>2642.013678668618</v>
+        <v>2801.153109076806</v>
       </c>
       <c r="AC2" t="n">
-        <v>2389.863601265972</v>
+        <v>2533.814987789595</v>
       </c>
       <c r="AD2" t="n">
-        <v>1930951.974184882</v>
+        <v>2047261.212020547</v>
       </c>
       <c r="AE2" t="n">
-        <v>2642013.678668619</v>
+        <v>2801153.109076806</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.719126995389592e-07</v>
+        <v>1.73625110920867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.46744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2389863.601265972</v>
+        <v>2533814.987789595</v>
       </c>
     </row>
     <row r="3">
@@ -26608,28 +26608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1182.443514681132</v>
+        <v>1269.782051994682</v>
       </c>
       <c r="AB3" t="n">
-        <v>1617.87138251292</v>
+        <v>1737.371822369647</v>
       </c>
       <c r="AC3" t="n">
-        <v>1463.464008462633</v>
+        <v>1571.559494059355</v>
       </c>
       <c r="AD3" t="n">
-        <v>1182443.514681132</v>
+        <v>1269782.051994682</v>
       </c>
       <c r="AE3" t="n">
-        <v>1617871.38251292</v>
+        <v>1737371.822369647</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.284748043038972e-06</v>
+        <v>2.295108620185971e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.99652777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1463464.008462633</v>
+        <v>1571559.494059355</v>
       </c>
     </row>
     <row r="4">
@@ -26714,28 +26714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>997.6977913042421</v>
+        <v>1075.407905231461</v>
       </c>
       <c r="AB4" t="n">
-        <v>1365.094133382571</v>
+        <v>1471.42053958606</v>
       </c>
       <c r="AC4" t="n">
-        <v>1234.811465214188</v>
+        <v>1330.990228439663</v>
       </c>
       <c r="AD4" t="n">
-        <v>997697.7913042421</v>
+        <v>1075407.905231461</v>
       </c>
       <c r="AE4" t="n">
-        <v>1365094.133382571</v>
+        <v>1471420.53958606</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.397646484790987e-06</v>
+        <v>2.496793447241788e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1234811.465214188</v>
+        <v>1330990.228439663</v>
       </c>
     </row>
     <row r="5">
@@ -26820,28 +26820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>887.3913502021427</v>
+        <v>965.0161232747902</v>
       </c>
       <c r="AB5" t="n">
-        <v>1214.167994289949</v>
+        <v>1320.37763337124</v>
       </c>
       <c r="AC5" t="n">
-        <v>1098.289505010399</v>
+        <v>1194.362645203935</v>
       </c>
       <c r="AD5" t="n">
-        <v>887391.3502021427</v>
+        <v>965016.1232747901</v>
       </c>
       <c r="AE5" t="n">
-        <v>1214167.994289949</v>
+        <v>1320377.63337124</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.456007533111993e-06</v>
+        <v>2.601051200978306e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.99782986111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1098289.505010399</v>
+        <v>1194362.645203935</v>
       </c>
     </row>
     <row r="6">
@@ -26926,28 +26926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>869.1147190352816</v>
+        <v>946.739492107929</v>
       </c>
       <c r="AB6" t="n">
-        <v>1189.161101219389</v>
+        <v>1295.37074030068</v>
       </c>
       <c r="AC6" t="n">
-        <v>1075.669234717098</v>
+        <v>1171.742374910635</v>
       </c>
       <c r="AD6" t="n">
-        <v>869114.7190352816</v>
+        <v>946739.492107929</v>
       </c>
       <c r="AE6" t="n">
-        <v>1189161.101219389</v>
+        <v>1295370.74030068</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.466572895308037e-06</v>
+        <v>2.619925449499572e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.88932291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1075669.234717098</v>
+        <v>1171742.374910635</v>
       </c>
     </row>
   </sheetData>
